--- a/test.xlsx
+++ b/test.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:AE7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,6 +356,174 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>云南昆钢电子信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>915300007273096071</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>云南安宁昆钢朝阳路</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2001-05-29</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>4534.7</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>皮坤</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>0871-68609721</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>490704983@qq.com</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>云南省钢铁冶金行业工业互联网平台</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>5210</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>已建在用</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>皮坤</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>学士</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>副总经理</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>工业互联网信息安全</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>副高级工程师</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>18669066607</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>0871-68609715</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>pikun@ynkg.com</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>项目总体目标：提供冶金云化工业软件和新型工业APP，围绕钢铁冶金行业上下游产业链聚集，开放共享企业资源和能力，构建集智慧生产、智慧能源、智慧物流、远程运维、电商服务、技术服务等于一体的行业服务平台。
+项目内容：（1）智慧能源云平台：建立优化调度模型、能源平衡模型和成本模型等。（2）智慧物流云平台：主要实现多模式大宗交易及运力交易，全流程的可视化物流管理，统一化的平台宝票结算支付，一体化的供应链金融及配套服务。（3）泛亚电商采购云平台：主要实现工业品商城、工程物资采购、竞价采购、在线招投标等；（4）智慧制造云平台：提供配矿模型、废钢模型、库存看板（原材料库、成品库）、生产指标看板（关键工序指标看板）、钢价预测模型、物流优化模型、产销协同等应用。（5）生产资源共享云平台：建立设备资产优化及备件共享体系。</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>本项目总投资5210万元，其中500万元拟申请政府扶持资金，其余4710万元为自筹资金。</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>云南昆钢电子信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>自建私有云</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
